--- a/Stocks/JET2.xlsx
+++ b/Stocks/JET2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D63EC5B-5A9A-434C-BB19-D4398844493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4D63EC5B-5A9A-434C-BB19-D4398844493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{088D0F41-E9DC-47D1-98CA-E893FF8D34D4}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{BB4C01D9-F629-486C-B3CF-1BF070496578}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BB4C01D9-F629-486C-B3CF-1BF070496578}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -428,7 +429,7 @@
   <dimension ref="K2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1600</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="3" spans="11:12" x14ac:dyDescent="0.25">
@@ -469,4 +470,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAB3F9C-473F-444E-946C-24055F6A852D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>